--- a/BrokenLinkValidator/Datatables/SiteMapUrl_CB1.xlsx
+++ b/BrokenLinkValidator/Datatables/SiteMapUrl_CB1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WC Bradley Workspace\BrokenLinkValidator\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Broken Links Workspace\BrokenLinkValidator\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="732">
   <si>
     <t>https://www.charbroil.com/grills</t>
   </si>
@@ -2131,9 +2131,6 @@
     <t>https://www.charbroil.com/grills/outdoor-kitchens/modular-outdoor-kitchen</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/replacement-parts</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/parts/universal-parts/grates-grids</t>
   </si>
   <si>
@@ -2164,18 +2161,6 @@
     <t>https://www.charbroil.com/grills/portable-grills/portable-griddles</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/universal-parts</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/universal-parts/grates-and-emitters</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/universal-parts/grates-and-emitters/n</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/universal-parts/grates-and-emitters/n/a</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/products/charcoal-grills/kettleman-trade</t>
   </si>
   <si>
@@ -2189,6 +2174,48 @@
   </si>
   <si>
     <t>https://www.charbroil.com/products/gas-grills/stainless-series-grills</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/accessories/accessories/parts-and-accessories</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/universal-parts/temp-gauges</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/universal-parts/heat-tents-flametamers</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/accessories/custom-grill-covers</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/accessories/custom-grill-covers/p-a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/accessories/tools-utensils/p-a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/accessories/accessories/p-a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/universal-parts/ignition-components</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/products/part-bundles</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/products/part-bundles/p-a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/part-bundles</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/part-bundles/p-a</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/parts/universal-parts/burners</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/promotions/labor-day-savings</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2256,8 +2283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2293,6 +2326,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2302,7 +2348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2315,7 +2361,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -8230,10 +8277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B601"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="B608" sqref="B608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8261,7 +8308,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8277,7 +8324,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8293,7 +8340,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8309,7 +8356,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8325,7 +8372,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8341,7 +8388,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>688</v>
       </c>
     </row>
@@ -8357,7 +8404,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>690</v>
       </c>
     </row>
@@ -8373,7 +8420,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8389,7 +8436,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>692</v>
       </c>
     </row>
@@ -8405,7 +8452,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8421,7 +8468,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8437,7 +8484,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8453,7 +8500,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8469,7 +8516,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8485,7 +8532,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8501,7 +8548,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8517,7 +8564,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8533,7 +8580,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8549,7 +8596,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8565,7 +8612,7 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8581,7 +8628,7 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8597,7 +8644,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8613,7 +8660,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8629,7 +8676,7 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8645,7 +8692,7 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8661,7 +8708,7 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8677,7 +8724,7 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8693,7 +8740,7 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8709,7 +8756,7 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8725,7 +8772,7 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8741,7 +8788,7 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8757,7 +8804,7 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8773,7 +8820,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8789,7 +8836,7 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8805,7 +8852,7 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8821,7 +8868,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8837,7 +8884,7 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8853,7 +8900,7 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8869,7 +8916,7 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8885,7 +8932,7 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8901,7 +8948,7 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8917,7 +8964,7 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8933,7 +8980,7 @@
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8949,7 +8996,7 @@
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8965,7 +9012,7 @@
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8981,7 +9028,7 @@
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8997,7 +9044,7 @@
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9013,7 +9060,7 @@
       <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9029,7 +9076,7 @@
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9045,7 +9092,7 @@
       <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -9061,7 +9108,7 @@
       <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9077,7 +9124,7 @@
       <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
         <v>696</v>
       </c>
     </row>
@@ -9093,7 +9140,7 @@
       <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>677</v>
       </c>
     </row>
@@ -9109,7 +9156,7 @@
       <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>682</v>
       </c>
     </row>
@@ -9125,7 +9172,7 @@
       <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="7" t="s">
         <v>684</v>
       </c>
     </row>
@@ -9141,7 +9188,7 @@
       <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="7" t="s">
         <v>686</v>
       </c>
     </row>
@@ -9157,7 +9204,7 @@
       <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
         <v>704</v>
       </c>
     </row>
@@ -9173,7 +9220,7 @@
       <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="7" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9189,7 +9236,7 @@
       <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="7" t="s">
         <v>708</v>
       </c>
     </row>
@@ -9205,7 +9252,7 @@
       <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
         <v>710</v>
       </c>
     </row>
@@ -9221,7 +9268,7 @@
       <c r="A123" s="5">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9237,7 +9284,7 @@
       <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9253,7 +9300,7 @@
       <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
         <v>716</v>
       </c>
     </row>
@@ -9269,7 +9316,7 @@
       <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
         <v>718</v>
       </c>
     </row>
@@ -9285,7 +9332,7 @@
       <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
         <v>720</v>
       </c>
     </row>
@@ -9301,7 +9348,7 @@
       <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="7" t="s">
         <v>722</v>
       </c>
     </row>
@@ -9310,15 +9357,15 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>96</v>
+        <v>723</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>97</v>
+      <c r="B135" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9326,15 +9373,15 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>98</v>
+        <v>725</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>99</v>
+      <c r="B137" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9342,15 +9389,15 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>102</v>
+        <v>727</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>103</v>
+      <c r="B139" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9358,15 +9405,15 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>104</v>
+        <v>729</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>105</v>
+      <c r="B141" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9374,15 +9421,15 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>106</v>
+        <v>731</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>107</v>
+      <c r="B143" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9390,15 +9437,15 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>109</v>
+      <c r="B145" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9406,15 +9453,15 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>113</v>
+      <c r="B147" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9422,15 +9469,15 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>678</v>
+      <c r="B149" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9438,15 +9485,15 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>679</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>116</v>
+      <c r="B151" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9454,15 +9501,15 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>118</v>
+      <c r="B153" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9470,15 +9517,15 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>120</v>
+      <c r="B155" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9486,15 +9533,15 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>123</v>
+      <c r="B157" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9502,15 +9549,15 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>125</v>
+      <c r="B159" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9518,15 +9565,15 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>127</v>
+      <c r="B161" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9534,15 +9581,15 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>129</v>
+      <c r="B163" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9550,15 +9597,15 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>131</v>
+      <c r="B165" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9566,15 +9613,15 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>133</v>
+      <c r="B167" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9582,15 +9629,15 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>135</v>
+      <c r="B169" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9598,15 +9645,15 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>137</v>
+      <c r="B171" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9614,15 +9661,15 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>139</v>
+      <c r="B173" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9630,15 +9677,15 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>141</v>
+      <c r="B175" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9646,15 +9693,15 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>143</v>
+      <c r="B177" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9662,15 +9709,15 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>145</v>
+      <c r="B179" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9678,15 +9725,15 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>147</v>
+      <c r="B181" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9694,15 +9741,15 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>151</v>
+      <c r="B183" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9710,15 +9757,15 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>153</v>
+      <c r="B185" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9726,14 +9773,14 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9742,15 +9789,15 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>157</v>
+      <c r="B189" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9758,15 +9805,15 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>159</v>
+      <c r="B191" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9774,15 +9821,15 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>162</v>
+      <c r="B193" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9790,15 +9837,15 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>164</v>
+      <c r="B195" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9806,15 +9853,15 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>166</v>
+      <c r="B197" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9822,15 +9869,15 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>169</v>
+      <c r="B199" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9838,15 +9885,15 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>171</v>
+      <c r="B201" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9854,15 +9901,15 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>173</v>
+      <c r="B203" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9870,15 +9917,15 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>176</v>
+      <c r="B205" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9886,15 +9933,15 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>178</v>
+      <c r="B207" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9902,15 +9949,15 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>180</v>
+      <c r="B209" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9918,15 +9965,15 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>182</v>
+      <c r="B211" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9934,15 +9981,15 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>184</v>
+      <c r="B213" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9950,15 +9997,15 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>186</v>
+      <c r="B215" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9966,15 +10013,15 @@
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>216</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>188</v>
+      <c r="B217" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9982,15 +10029,15 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>218</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>190</v>
+      <c r="B219" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -9998,15 +10045,15 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>220</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>192</v>
+      <c r="B221" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10014,15 +10061,15 @@
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>194</v>
+      <c r="B223" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10030,15 +10077,15 @@
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>196</v>
+      <c r="B225" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10046,15 +10093,15 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>198</v>
+      <c r="B227" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10062,15 +10109,15 @@
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>200</v>
+      <c r="B229" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10078,15 +10125,15 @@
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>202</v>
+      <c r="B231" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10094,15 +10141,15 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>204</v>
+      <c r="B233" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10110,15 +10157,15 @@
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>206</v>
+      <c r="B235" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10126,15 +10173,15 @@
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>208</v>
+      <c r="B237" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10142,15 +10189,15 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>210</v>
+      <c r="B239" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10158,15 +10205,15 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>212</v>
+      <c r="B241" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10174,15 +10221,15 @@
         <v>241</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>214</v>
+      <c r="B243" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10190,15 +10237,15 @@
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>216</v>
+      <c r="B245" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10206,15 +10253,15 @@
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>218</v>
+      <c r="B247" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10222,15 +10269,15 @@
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>220</v>
+      <c r="B249" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10238,15 +10285,15 @@
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>250</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>222</v>
+      <c r="B251" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10254,15 +10301,15 @@
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>224</v>
+      <c r="B253" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10270,15 +10317,15 @@
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>226</v>
+      <c r="B255" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10286,15 +10333,15 @@
         <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>256</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>228</v>
+      <c r="B257" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10302,15 +10349,15 @@
         <v>257</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>258</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>230</v>
+      <c r="B259" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10318,15 +10365,15 @@
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>260</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>232</v>
+      <c r="B261" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10334,15 +10381,15 @@
         <v>261</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>234</v>
+      <c r="B263" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10350,15 +10397,15 @@
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>264</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>236</v>
+      <c r="B265" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10366,15 +10413,15 @@
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>266</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>238</v>
+      <c r="B267" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10382,15 +10429,15 @@
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>268</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>240</v>
+      <c r="B269" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10398,15 +10445,15 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>270</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>242</v>
+      <c r="B271" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10414,15 +10461,15 @@
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>272</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>244</v>
+      <c r="B273" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10430,15 +10477,15 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>274</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>246</v>
+      <c r="B275" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10446,15 +10493,15 @@
         <v>275</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>276</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>248</v>
+      <c r="B277" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10462,15 +10509,15 @@
         <v>277</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>278</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>250</v>
+      <c r="B279" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10478,15 +10525,15 @@
         <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>280</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>252</v>
+      <c r="B281" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10494,15 +10541,15 @@
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>282</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>254</v>
+      <c r="B283" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10510,15 +10557,15 @@
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>284</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>256</v>
+      <c r="B285" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10526,15 +10573,15 @@
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>286</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>258</v>
+      <c r="B287" s="7" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10542,15 +10589,15 @@
         <v>287</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>288</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>260</v>
+      <c r="B289" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10558,15 +10605,15 @@
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>262</v>
+      <c r="B291" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10574,15 +10621,15 @@
         <v>291</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>264</v>
+      <c r="B293" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10590,15 +10637,15 @@
         <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>266</v>
+      <c r="B295" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10606,15 +10653,15 @@
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>296</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>268</v>
+      <c r="B297" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10622,15 +10669,15 @@
         <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>298</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>270</v>
+      <c r="B299" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10638,15 +10685,15 @@
         <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>300</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>272</v>
+      <c r="B301" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10654,15 +10701,15 @@
         <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>302</v>
       </c>
-      <c r="B303" s="6" t="s">
-        <v>274</v>
+      <c r="B303" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10670,15 +10717,15 @@
         <v>303</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>304</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>276</v>
+      <c r="B305" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10686,15 +10733,15 @@
         <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>306</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>278</v>
+      <c r="B307" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10702,15 +10749,15 @@
         <v>307</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>308</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>280</v>
+      <c r="B309" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10718,15 +10765,15 @@
         <v>309</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>310</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>282</v>
+      <c r="B311" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10734,15 +10781,15 @@
         <v>311</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>312</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>284</v>
+      <c r="B313" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10750,15 +10797,15 @@
         <v>313</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>314</v>
       </c>
-      <c r="B315" s="6" t="s">
-        <v>286</v>
+      <c r="B315" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10766,15 +10813,15 @@
         <v>315</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>316</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>288</v>
+      <c r="B317" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10782,15 +10829,15 @@
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>318</v>
       </c>
-      <c r="B319" s="6" t="s">
-        <v>290</v>
+      <c r="B319" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10798,15 +10845,15 @@
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>320</v>
       </c>
-      <c r="B321" s="6" t="s">
-        <v>292</v>
+      <c r="B321" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10814,15 +10861,15 @@
         <v>321</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>322</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>294</v>
+      <c r="B323" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10830,15 +10877,15 @@
         <v>323</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>324</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>296</v>
+      <c r="B325" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10846,15 +10893,15 @@
         <v>325</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>326</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>298</v>
+      <c r="B327" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10862,15 +10909,15 @@
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>328</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>300</v>
+      <c r="B329" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10878,15 +10925,15 @@
         <v>329</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>330</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>302</v>
+      <c r="B331" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10894,15 +10941,15 @@
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>332</v>
       </c>
-      <c r="B333" s="6" t="s">
-        <v>304</v>
+      <c r="B333" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10910,15 +10957,15 @@
         <v>333</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>334</v>
       </c>
-      <c r="B335" s="6" t="s">
-        <v>306</v>
+      <c r="B335" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10926,15 +10973,15 @@
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>336</v>
       </c>
-      <c r="B337" s="6" t="s">
-        <v>308</v>
+      <c r="B337" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10942,15 +10989,15 @@
         <v>337</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>338</v>
       </c>
-      <c r="B339" s="6" t="s">
-        <v>310</v>
+      <c r="B339" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10958,15 +11005,15 @@
         <v>339</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="6" t="s">
-        <v>312</v>
+      <c r="B341" s="7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10974,15 +11021,15 @@
         <v>341</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>342</v>
       </c>
-      <c r="B343" s="6" t="s">
-        <v>314</v>
+      <c r="B343" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -10990,15 +11037,15 @@
         <v>343</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>344</v>
       </c>
-      <c r="B345" s="6" t="s">
-        <v>316</v>
+      <c r="B345" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11006,15 +11053,15 @@
         <v>345</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>346</v>
       </c>
-      <c r="B347" s="6" t="s">
-        <v>318</v>
+      <c r="B347" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11022,15 +11069,15 @@
         <v>347</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>348</v>
       </c>
-      <c r="B349" s="6" t="s">
-        <v>320</v>
+      <c r="B349" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11038,15 +11085,15 @@
         <v>349</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>350</v>
       </c>
-      <c r="B351" s="6" t="s">
-        <v>322</v>
+      <c r="B351" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11054,15 +11101,15 @@
         <v>351</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>352</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>324</v>
+      <c r="B353" s="7" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11070,15 +11117,15 @@
         <v>353</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>354</v>
       </c>
-      <c r="B355" s="6" t="s">
-        <v>326</v>
+      <c r="B355" s="7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11086,15 +11133,15 @@
         <v>355</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>356</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>328</v>
+      <c r="B357" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11102,15 +11149,15 @@
         <v>357</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>358</v>
       </c>
-      <c r="B359" s="6" t="s">
-        <v>330</v>
+      <c r="B359" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11118,15 +11165,15 @@
         <v>359</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>360</v>
       </c>
-      <c r="B361" s="6" t="s">
-        <v>332</v>
+      <c r="B361" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11134,15 +11181,15 @@
         <v>361</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>362</v>
       </c>
-      <c r="B363" s="6" t="s">
-        <v>334</v>
+      <c r="B363" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11150,15 +11197,15 @@
         <v>363</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>364</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>336</v>
+      <c r="B365" s="7" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11166,15 +11213,15 @@
         <v>365</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>366</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>338</v>
+      <c r="B367" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11182,15 +11229,15 @@
         <v>367</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>368</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>340</v>
+      <c r="B369" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11198,15 +11245,15 @@
         <v>369</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>370</v>
       </c>
-      <c r="B371" s="6" t="s">
-        <v>342</v>
+      <c r="B371" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11214,15 +11261,15 @@
         <v>371</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>372</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>344</v>
+      <c r="B373" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11230,15 +11277,15 @@
         <v>373</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>374</v>
       </c>
-      <c r="B375" s="6" t="s">
-        <v>346</v>
+      <c r="B375" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11246,15 +11293,15 @@
         <v>375</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>376</v>
       </c>
-      <c r="B377" s="6" t="s">
-        <v>348</v>
+      <c r="B377" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11262,15 +11309,15 @@
         <v>377</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>378</v>
       </c>
-      <c r="B379" s="6" t="s">
-        <v>350</v>
+      <c r="B379" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11278,15 +11325,15 @@
         <v>379</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>380</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>352</v>
+      <c r="B381" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11294,15 +11341,15 @@
         <v>381</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>382</v>
       </c>
-      <c r="B383" s="6" t="s">
-        <v>354</v>
+      <c r="B383" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11310,15 +11357,15 @@
         <v>383</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>384</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>356</v>
+      <c r="B385" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11326,15 +11373,15 @@
         <v>385</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>386</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>358</v>
+      <c r="B387" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11342,15 +11389,15 @@
         <v>387</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>388</v>
       </c>
-      <c r="B389" s="6" t="s">
-        <v>360</v>
+      <c r="B389" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11358,15 +11405,15 @@
         <v>389</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>390</v>
       </c>
-      <c r="B391" s="6" t="s">
-        <v>362</v>
+      <c r="B391" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11374,15 +11421,15 @@
         <v>391</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>392</v>
       </c>
-      <c r="B393" s="6" t="s">
-        <v>364</v>
+      <c r="B393" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11390,15 +11437,15 @@
         <v>393</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>394</v>
       </c>
-      <c r="B395" s="6" t="s">
-        <v>366</v>
+      <c r="B395" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11406,15 +11453,15 @@
         <v>395</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>396</v>
       </c>
-      <c r="B397" s="6" t="s">
-        <v>368</v>
+      <c r="B397" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11422,15 +11469,15 @@
         <v>397</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>398</v>
       </c>
-      <c r="B399" s="6" t="s">
-        <v>370</v>
+      <c r="B399" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11438,15 +11485,15 @@
         <v>399</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>400</v>
       </c>
-      <c r="B401" s="6" t="s">
-        <v>372</v>
+      <c r="B401" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11454,15 +11501,15 @@
         <v>401</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>402</v>
       </c>
-      <c r="B403" s="6" t="s">
-        <v>374</v>
+      <c r="B403" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11470,15 +11517,15 @@
         <v>403</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>404</v>
       </c>
-      <c r="B405" s="6" t="s">
-        <v>376</v>
+      <c r="B405" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11486,15 +11533,15 @@
         <v>405</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>406</v>
       </c>
-      <c r="B407" s="6" t="s">
-        <v>378</v>
+      <c r="B407" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11502,15 +11549,15 @@
         <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>408</v>
       </c>
-      <c r="B409" s="6" t="s">
-        <v>380</v>
+      <c r="B409" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11518,15 +11565,15 @@
         <v>409</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>410</v>
       </c>
-      <c r="B411" s="6" t="s">
-        <v>382</v>
+      <c r="B411" s="7" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11534,15 +11581,15 @@
         <v>411</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>412</v>
       </c>
-      <c r="B413" s="6" t="s">
-        <v>384</v>
+      <c r="B413" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11550,15 +11597,15 @@
         <v>413</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>414</v>
       </c>
-      <c r="B415" s="6" t="s">
-        <v>386</v>
+      <c r="B415" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11566,15 +11613,15 @@
         <v>415</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>416</v>
       </c>
-      <c r="B417" s="6" t="s">
-        <v>388</v>
+      <c r="B417" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11582,15 +11629,15 @@
         <v>417</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>418</v>
       </c>
-      <c r="B419" s="6" t="s">
-        <v>390</v>
+      <c r="B419" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11598,15 +11645,15 @@
         <v>419</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>420</v>
       </c>
-      <c r="B421" s="6" t="s">
-        <v>392</v>
+      <c r="B421" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11614,15 +11661,15 @@
         <v>421</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>422</v>
       </c>
-      <c r="B423" s="6" t="s">
-        <v>394</v>
+      <c r="B423" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11630,15 +11677,15 @@
         <v>423</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>424</v>
       </c>
-      <c r="B425" s="6" t="s">
-        <v>396</v>
+      <c r="B425" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11646,15 +11693,15 @@
         <v>425</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>426</v>
       </c>
-      <c r="B427" s="6" t="s">
-        <v>398</v>
+      <c r="B427" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11662,15 +11709,15 @@
         <v>427</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>428</v>
       </c>
-      <c r="B429" s="6" t="s">
-        <v>400</v>
+      <c r="B429" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11678,15 +11725,15 @@
         <v>429</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>430</v>
       </c>
-      <c r="B431" s="6" t="s">
-        <v>402</v>
+      <c r="B431" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11694,15 +11741,15 @@
         <v>431</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>432</v>
       </c>
-      <c r="B433" s="6" t="s">
-        <v>404</v>
+      <c r="B433" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11710,15 +11757,15 @@
         <v>433</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>434</v>
       </c>
-      <c r="B435" s="6" t="s">
-        <v>406</v>
+      <c r="B435" s="7" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11726,15 +11773,15 @@
         <v>435</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>436</v>
       </c>
-      <c r="B437" s="6" t="s">
-        <v>408</v>
+      <c r="B437" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11742,15 +11789,15 @@
         <v>437</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>438</v>
       </c>
-      <c r="B439" s="6" t="s">
-        <v>410</v>
+      <c r="B439" s="7" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11758,15 +11805,15 @@
         <v>439</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>440</v>
       </c>
-      <c r="B441" s="6" t="s">
-        <v>412</v>
+      <c r="B441" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11774,15 +11821,15 @@
         <v>441</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>442</v>
       </c>
-      <c r="B443" s="6" t="s">
-        <v>414</v>
+      <c r="B443" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11790,15 +11837,15 @@
         <v>443</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>444</v>
       </c>
-      <c r="B445" s="6" t="s">
-        <v>416</v>
+      <c r="B445" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11806,15 +11853,15 @@
         <v>445</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>446</v>
       </c>
-      <c r="B447" s="6" t="s">
-        <v>418</v>
+      <c r="B447" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11822,15 +11869,15 @@
         <v>447</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>448</v>
       </c>
-      <c r="B449" s="6" t="s">
-        <v>420</v>
+      <c r="B449" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11838,15 +11885,15 @@
         <v>449</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>450</v>
       </c>
-      <c r="B451" s="6" t="s">
-        <v>422</v>
+      <c r="B451" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11854,15 +11901,15 @@
         <v>451</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>452</v>
       </c>
-      <c r="B453" s="6" t="s">
-        <v>424</v>
+      <c r="B453" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11870,15 +11917,15 @@
         <v>453</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>454</v>
       </c>
-      <c r="B455" s="6" t="s">
-        <v>426</v>
+      <c r="B455" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11886,15 +11933,15 @@
         <v>455</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>456</v>
       </c>
-      <c r="B457" s="6" t="s">
-        <v>428</v>
+      <c r="B457" s="7" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11902,15 +11949,15 @@
         <v>457</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>458</v>
       </c>
-      <c r="B459" s="6" t="s">
-        <v>430</v>
+      <c r="B459" s="7" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11918,15 +11965,15 @@
         <v>459</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>460</v>
       </c>
-      <c r="B461" s="6" t="s">
-        <v>432</v>
+      <c r="B461" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11934,15 +11981,15 @@
         <v>461</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>462</v>
       </c>
-      <c r="B463" s="6" t="s">
-        <v>434</v>
+      <c r="B463" s="7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11950,15 +11997,15 @@
         <v>463</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>464</v>
       </c>
-      <c r="B465" s="6" t="s">
-        <v>436</v>
+      <c r="B465" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11966,15 +12013,15 @@
         <v>465</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>466</v>
       </c>
-      <c r="B467" s="6" t="s">
-        <v>438</v>
+      <c r="B467" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11982,15 +12029,15 @@
         <v>467</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>468</v>
       </c>
-      <c r="B469" s="6" t="s">
-        <v>440</v>
+      <c r="B469" s="7" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -11998,15 +12045,15 @@
         <v>469</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>470</v>
       </c>
-      <c r="B471" s="6" t="s">
-        <v>442</v>
+      <c r="B471" s="7" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12014,15 +12061,15 @@
         <v>471</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>472</v>
       </c>
-      <c r="B473" s="6" t="s">
-        <v>444</v>
+      <c r="B473" s="7" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12030,15 +12077,15 @@
         <v>473</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>474</v>
       </c>
-      <c r="B475" s="6" t="s">
-        <v>446</v>
+      <c r="B475" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12046,15 +12093,15 @@
         <v>475</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>476</v>
       </c>
-      <c r="B477" s="6" t="s">
-        <v>448</v>
+      <c r="B477" s="7" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12062,15 +12109,15 @@
         <v>477</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>478</v>
       </c>
-      <c r="B479" s="6" t="s">
-        <v>450</v>
+      <c r="B479" s="7" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12078,15 +12125,15 @@
         <v>479</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>480</v>
       </c>
-      <c r="B481" s="6" t="s">
-        <v>452</v>
+      <c r="B481" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12094,15 +12141,15 @@
         <v>481</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>482</v>
       </c>
-      <c r="B483" s="6" t="s">
-        <v>454</v>
+      <c r="B483" s="7" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12110,15 +12157,15 @@
         <v>483</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>484</v>
       </c>
-      <c r="B485" s="6" t="s">
-        <v>456</v>
+      <c r="B485" s="7" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12126,15 +12173,15 @@
         <v>485</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>486</v>
       </c>
-      <c r="B487" s="6" t="s">
-        <v>458</v>
+      <c r="B487" s="7" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12142,15 +12189,15 @@
         <v>487</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>488</v>
       </c>
-      <c r="B489" s="6" t="s">
-        <v>460</v>
+      <c r="B489" s="7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12158,15 +12205,15 @@
         <v>489</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>490</v>
       </c>
-      <c r="B491" s="6" t="s">
-        <v>462</v>
+      <c r="B491" s="7" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12174,15 +12221,15 @@
         <v>491</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>492</v>
       </c>
-      <c r="B493" s="6" t="s">
-        <v>464</v>
+      <c r="B493" s="7" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12190,15 +12237,15 @@
         <v>493</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>494</v>
       </c>
-      <c r="B495" s="6" t="s">
-        <v>466</v>
+      <c r="B495" s="7" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12206,15 +12253,15 @@
         <v>495</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>496</v>
       </c>
-      <c r="B497" s="6" t="s">
-        <v>468</v>
+      <c r="B497" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12222,15 +12269,15 @@
         <v>497</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>498</v>
       </c>
-      <c r="B499" s="6" t="s">
-        <v>470</v>
+      <c r="B499" s="7" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12238,15 +12285,15 @@
         <v>499</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>500</v>
       </c>
-      <c r="B501" s="6" t="s">
-        <v>472</v>
+      <c r="B501" s="7" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12254,15 +12301,15 @@
         <v>501</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>502</v>
       </c>
-      <c r="B503" s="6" t="s">
-        <v>474</v>
+      <c r="B503" s="7" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12270,15 +12317,15 @@
         <v>503</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <v>504</v>
       </c>
-      <c r="B505" s="6" t="s">
-        <v>476</v>
+      <c r="B505" s="7" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12286,15 +12333,15 @@
         <v>505</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <v>506</v>
       </c>
-      <c r="B507" s="6" t="s">
-        <v>478</v>
+      <c r="B507" s="7" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12302,15 +12349,15 @@
         <v>507</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>508</v>
       </c>
-      <c r="B509" s="6" t="s">
-        <v>480</v>
+      <c r="B509" s="7" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12318,15 +12365,15 @@
         <v>509</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <v>510</v>
       </c>
-      <c r="B511" s="6" t="s">
-        <v>482</v>
+      <c r="B511" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12334,15 +12381,15 @@
         <v>511</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>512</v>
       </c>
-      <c r="B513" s="6" t="s">
-        <v>484</v>
+      <c r="B513" s="7" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12350,15 +12397,15 @@
         <v>513</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>514</v>
       </c>
-      <c r="B515" s="6" t="s">
-        <v>486</v>
+      <c r="B515" s="7" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12366,15 +12413,15 @@
         <v>515</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
         <v>516</v>
       </c>
-      <c r="B517" s="6" t="s">
-        <v>488</v>
+      <c r="B517" s="7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12382,15 +12429,15 @@
         <v>517</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>518</v>
       </c>
-      <c r="B519" s="6" t="s">
-        <v>490</v>
+      <c r="B519" s="7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12398,15 +12445,15 @@
         <v>519</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>520</v>
       </c>
-      <c r="B521" s="6" t="s">
-        <v>492</v>
+      <c r="B521" s="7" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12414,15 +12461,15 @@
         <v>521</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
         <v>522</v>
       </c>
-      <c r="B523" s="6" t="s">
-        <v>494</v>
+      <c r="B523" s="7" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12430,15 +12477,15 @@
         <v>523</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
         <v>524</v>
       </c>
-      <c r="B525" s="6" t="s">
-        <v>496</v>
+      <c r="B525" s="7" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12446,15 +12493,15 @@
         <v>525</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>526</v>
       </c>
-      <c r="B527" s="6" t="s">
-        <v>498</v>
+      <c r="B527" s="7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12462,15 +12509,15 @@
         <v>527</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
         <v>528</v>
       </c>
-      <c r="B529" s="6" t="s">
-        <v>500</v>
+      <c r="B529" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12478,15 +12525,15 @@
         <v>529</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
         <v>530</v>
       </c>
-      <c r="B531" s="6" t="s">
-        <v>502</v>
+      <c r="B531" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12494,15 +12541,15 @@
         <v>531</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="6" t="s">
-        <v>504</v>
+      <c r="B533" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12510,15 +12557,15 @@
         <v>533</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="6" t="s">
-        <v>506</v>
+      <c r="B535" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12526,15 +12573,15 @@
         <v>535</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="6" t="s">
-        <v>508</v>
+      <c r="B537" s="7" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12542,15 +12589,15 @@
         <v>537</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="6" t="s">
-        <v>510</v>
+      <c r="B539" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12558,15 +12605,15 @@
         <v>539</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="6" t="s">
-        <v>512</v>
+      <c r="B541" s="7" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12574,15 +12621,15 @@
         <v>541</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="6" t="s">
-        <v>514</v>
+      <c r="B543" s="7" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12590,15 +12637,15 @@
         <v>543</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="6" t="s">
-        <v>516</v>
+      <c r="B545" s="7" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12606,15 +12653,15 @@
         <v>545</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="6" t="s">
-        <v>518</v>
+      <c r="B547" s="7" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12622,15 +12669,15 @@
         <v>547</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="6" t="s">
-        <v>520</v>
+      <c r="B549" s="7" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12638,15 +12685,15 @@
         <v>549</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="6" t="s">
-        <v>522</v>
+      <c r="B551" s="7" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12654,15 +12701,15 @@
         <v>551</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="6" t="s">
-        <v>524</v>
+      <c r="B553" s="7" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12670,15 +12717,15 @@
         <v>553</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="6" t="s">
-        <v>526</v>
+      <c r="B555" s="7" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12686,15 +12733,15 @@
         <v>555</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="6" t="s">
-        <v>528</v>
+      <c r="B557" s="7" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12702,15 +12749,15 @@
         <v>557</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="6" t="s">
-        <v>530</v>
+      <c r="B559" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12718,15 +12765,15 @@
         <v>559</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="6" t="s">
-        <v>532</v>
+      <c r="B561" s="7" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12734,15 +12781,15 @@
         <v>561</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="6" t="s">
-        <v>534</v>
+      <c r="B563" s="7" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12750,15 +12797,15 @@
         <v>563</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="6" t="s">
-        <v>536</v>
+      <c r="B565" s="7" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12766,15 +12813,15 @@
         <v>565</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
         <v>566</v>
       </c>
-      <c r="B567" s="6" t="s">
-        <v>538</v>
+      <c r="B567" s="7" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12782,15 +12829,15 @@
         <v>567</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
         <v>568</v>
       </c>
-      <c r="B569" s="6" t="s">
-        <v>540</v>
+      <c r="B569" s="7" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12798,15 +12845,15 @@
         <v>569</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
         <v>570</v>
       </c>
-      <c r="B571" s="6" t="s">
-        <v>542</v>
+      <c r="B571" s="7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12814,15 +12861,15 @@
         <v>571</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
         <v>572</v>
       </c>
-      <c r="B573" s="6" t="s">
-        <v>544</v>
+      <c r="B573" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12830,15 +12877,15 @@
         <v>573</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="6" t="s">
-        <v>546</v>
+      <c r="B575" s="7" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12846,15 +12893,15 @@
         <v>575</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="6" t="s">
-        <v>548</v>
+      <c r="B577" s="7" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12862,15 +12909,15 @@
         <v>577</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="6" t="s">
-        <v>550</v>
+      <c r="B579" s="7" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12878,15 +12925,15 @@
         <v>579</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="6" t="s">
-        <v>552</v>
+      <c r="B581" s="7" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12894,15 +12941,15 @@
         <v>581</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
         <v>582</v>
       </c>
-      <c r="B583" s="6" t="s">
-        <v>554</v>
+      <c r="B583" s="7" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12910,15 +12957,15 @@
         <v>583</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
         <v>584</v>
       </c>
-      <c r="B585" s="6" t="s">
-        <v>556</v>
+      <c r="B585" s="7" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12926,15 +12973,15 @@
         <v>585</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
         <v>586</v>
       </c>
-      <c r="B587" s="6" t="s">
-        <v>558</v>
+      <c r="B587" s="7" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12942,15 +12989,15 @@
         <v>587</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
         <v>588</v>
       </c>
-      <c r="B589" s="6" t="s">
-        <v>560</v>
+      <c r="B589" s="7" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12958,15 +13005,15 @@
         <v>589</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
         <v>590</v>
       </c>
-      <c r="B591" s="6" t="s">
-        <v>562</v>
+      <c r="B591" s="7" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12974,15 +13021,15 @@
         <v>591</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
         <v>592</v>
       </c>
-      <c r="B593" s="6" t="s">
-        <v>564</v>
+      <c r="B593" s="7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -12990,15 +13037,15 @@
         <v>593</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
         <v>594</v>
       </c>
-      <c r="B595" s="6" t="s">
-        <v>566</v>
+      <c r="B595" s="7" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -13006,15 +13053,15 @@
         <v>595</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
         <v>596</v>
       </c>
-      <c r="B597" s="6" t="s">
-        <v>568</v>
+      <c r="B597" s="7" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -13022,15 +13069,15 @@
         <v>597</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
         <v>598</v>
       </c>
-      <c r="B599" s="6" t="s">
-        <v>570</v>
+      <c r="B599" s="7" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -13038,15 +13085,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A601" s="5">
-        <v>600</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -13650,7 +13689,6 @@
     <hyperlink ref="B598" r:id="rId597"/>
     <hyperlink ref="B599" r:id="rId598"/>
     <hyperlink ref="B600" r:id="rId599"/>
-    <hyperlink ref="B601" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
